--- a/artfynd/A 51557-2022.xlsx
+++ b/artfynd/A 51557-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89124858</v>
+        <v>89124839</v>
       </c>
       <c r="B2" t="n">
-        <v>77259</v>
+        <v>95525</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>221941</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>534185.1622770416</v>
+        <v>533753.1171408413</v>
       </c>
       <c r="R2" t="n">
-        <v>6902557.999860712</v>
+        <v>6903109.937925656</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89124839</v>
+        <v>89124842</v>
       </c>
       <c r="B3" t="n">
-        <v>95525</v>
+        <v>95519</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221941</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>533753.1171408413</v>
+        <v>533669.7937915208</v>
       </c>
       <c r="R3" t="n">
-        <v>6903109.937925656</v>
+        <v>6903090.933150688</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89124851</v>
+        <v>89124843</v>
       </c>
       <c r="B4" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>533999.1884141648</v>
+        <v>533659.0313536879</v>
       </c>
       <c r="R4" t="n">
-        <v>6902813.777029264</v>
+        <v>6903094.08653159</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89124842</v>
+        <v>89124841</v>
       </c>
       <c r="B5" t="n">
-        <v>95519</v>
+        <v>96237</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>220093</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>533669.7937915208</v>
+        <v>533677.0621316924</v>
       </c>
       <c r="R5" t="n">
-        <v>6903090.933150688</v>
+        <v>6903063.984857111</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89124856</v>
+        <v>89124858</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>77259</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,21 +1160,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>534125.9184093268</v>
+        <v>534185.1622770416</v>
       </c>
       <c r="R6" t="n">
-        <v>6902602.129391655</v>
+        <v>6902557.999860712</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89124850</v>
+        <v>89124851</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>533977.1051462417</v>
+        <v>533999.1884141648</v>
       </c>
       <c r="R7" t="n">
-        <v>6902828.929063975</v>
+        <v>6902813.777029264</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89124852</v>
+        <v>89124856</v>
       </c>
       <c r="B8" t="n">
         <v>77506</v>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>534000.1686273545</v>
+        <v>534125.9184093268</v>
       </c>
       <c r="R8" t="n">
-        <v>6902809.127754148</v>
+        <v>6902602.129391655</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89124855</v>
+        <v>89124850</v>
       </c>
       <c r="B9" t="n">
-        <v>76909</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,21 +1508,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>534081.1437023395</v>
+        <v>533977.1051462417</v>
       </c>
       <c r="R9" t="n">
-        <v>6902692.067965358</v>
+        <v>6902828.929063975</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89124859</v>
+        <v>89124852</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>534178.1517579975</v>
+        <v>534000.1686273545</v>
       </c>
       <c r="R10" t="n">
-        <v>6902604.989653899</v>
+        <v>6902809.127754148</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89124843</v>
+        <v>89124855</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>76909</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>533659.0313536879</v>
+        <v>534081.1437023395</v>
       </c>
       <c r="R11" t="n">
-        <v>6903094.08653159</v>
+        <v>6902692.067965358</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89124841</v>
+        <v>89124859</v>
       </c>
       <c r="B12" t="n">
-        <v>96237</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,25 +1852,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220093</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>533677.0621316924</v>
+        <v>534178.1517579975</v>
       </c>
       <c r="R12" t="n">
-        <v>6903063.984857111</v>
+        <v>6902604.989653899</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>

--- a/artfynd/A 51557-2022.xlsx
+++ b/artfynd/A 51557-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89124839</v>
+        <v>89124858</v>
       </c>
       <c r="B2" t="n">
-        <v>95525</v>
+        <v>77259</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221941</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>533753.1171408413</v>
+        <v>534185.1622770416</v>
       </c>
       <c r="R2" t="n">
-        <v>6903109.937925656</v>
+        <v>6902557.999860712</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89124842</v>
+        <v>89124839</v>
       </c>
       <c r="B3" t="n">
-        <v>95519</v>
+        <v>95525</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>221941</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>533669.7937915208</v>
+        <v>533753.1171408413</v>
       </c>
       <c r="R3" t="n">
-        <v>6903090.933150688</v>
+        <v>6903109.937925656</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89124843</v>
+        <v>89124851</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,21 +928,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>533659.0313536879</v>
+        <v>533999.1884141648</v>
       </c>
       <c r="R4" t="n">
-        <v>6903094.08653159</v>
+        <v>6902813.777029264</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89124841</v>
+        <v>89124842</v>
       </c>
       <c r="B5" t="n">
-        <v>96237</v>
+        <v>95519</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1044,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220093</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>533677.0621316924</v>
+        <v>533669.7937915208</v>
       </c>
       <c r="R5" t="n">
-        <v>6903063.984857111</v>
+        <v>6903090.933150688</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89124858</v>
+        <v>89124856</v>
       </c>
       <c r="B6" t="n">
-        <v>77259</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,21 +1160,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>534185.1622770416</v>
+        <v>534125.9184093268</v>
       </c>
       <c r="R6" t="n">
-        <v>6902557.999860712</v>
+        <v>6902602.129391655</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89124851</v>
+        <v>89124850</v>
       </c>
       <c r="B7" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>533999.1884141648</v>
+        <v>533977.1051462417</v>
       </c>
       <c r="R7" t="n">
-        <v>6902813.777029264</v>
+        <v>6902828.929063975</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89124856</v>
+        <v>89124852</v>
       </c>
       <c r="B8" t="n">
         <v>77506</v>
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>534125.9184093268</v>
+        <v>534000.1686273545</v>
       </c>
       <c r="R8" t="n">
-        <v>6902602.129391655</v>
+        <v>6902809.127754148</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89124850</v>
+        <v>89124855</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>76909</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,21 +1508,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>533977.1051462417</v>
+        <v>534081.1437023395</v>
       </c>
       <c r="R9" t="n">
-        <v>6902828.929063975</v>
+        <v>6902692.067965358</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89124852</v>
+        <v>89124859</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>534000.1686273545</v>
+        <v>534178.1517579975</v>
       </c>
       <c r="R10" t="n">
-        <v>6902809.127754148</v>
+        <v>6902604.989653899</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>89124855</v>
+        <v>89124843</v>
       </c>
       <c r="B11" t="n">
-        <v>76909</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>534081.1437023395</v>
+        <v>533659.0313536879</v>
       </c>
       <c r="R11" t="n">
-        <v>6902692.067965358</v>
+        <v>6903094.08653159</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89124859</v>
+        <v>89124841</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>96237</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,25 +1852,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>220093</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1880,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>534178.1517579975</v>
+        <v>533677.0621316924</v>
       </c>
       <c r="R12" t="n">
-        <v>6902604.989653899</v>
+        <v>6903063.984857111</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
